--- a/DATA_goal/Junction_Flooding_350.xlsx
+++ b/DATA_goal/Junction_Flooding_350.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45031.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45031.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.9</v>
+        <v>18.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.47</v>
+        <v>24.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.11</v>
+        <v>101.06</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45031.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.34</v>
+        <v>23.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.1</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.17</v>
+        <v>51.69</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.28</v>
+        <v>42.8</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.89</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.96</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.22</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2</v>
+        <v>19.96</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.42</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.2</v>
+        <v>21.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.48</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.79</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.53</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.86</v>
+        <v>278.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.25</v>
+        <v>52.51</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.2</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.51</v>
+        <v>35.15</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.93</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.53</v>
+        <v>35.33</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.27</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.25</v>
+        <v>22.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.33</v>
+        <v>63.31</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45031.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.72</v>
+        <v>27.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.07</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.84</v>
+        <v>78.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.01</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_350.xlsx
+++ b/DATA_goal/Junction_Flooding_350.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45031.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
         <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45031.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.25</v>
+        <v>8.254</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.97</v>
+        <v>6.972</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.95</v>
+        <v>18.954</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.88</v>
+        <v>15.877</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.16</v>
+        <v>7.159</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.72</v>
+        <v>24.723</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.13</v>
+        <v>11.131</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.18</v>
+        <v>5.178</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.06</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>8.621</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>8.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.12</v>
+        <v>2.115</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.73</v>
+        <v>6.725</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.01</v>
+        <v>10.015</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.84</v>
+        <v>5.837</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.161</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.06</v>
+        <v>101.062</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.91</v>
+        <v>19.913</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="W3" s="4" t="n">
         <v>12.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.48</v>
+        <v>7.482</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.843</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.53</v>
+        <v>13.533</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.79</v>
+        <v>5.789</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.02</v>
+        <v>6.016</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.69</v>
+        <v>6.692</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.025</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.47</v>
+        <v>22.474</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.1</v>
+        <v>4.098</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.92</v>
+        <v>7.916</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45031.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.42</v>
+        <v>23.421</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.1</v>
+        <v>18.098</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.627</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>51.69</v>
+        <v>51.685</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.8</v>
+        <v>42.796</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.89</v>
+        <v>18.886</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>69.59999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.18</v>
+        <v>29.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.22</v>
+        <v>13.219</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>19.96</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.42</v>
+        <v>21.421</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>21.96</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.9</v>
+        <v>5.897</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>18.48</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.79</v>
+        <v>26.789</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.53</v>
+        <v>15.534</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.603</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.59</v>
+        <v>278.593</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.51</v>
+        <v>52.509</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.2</v>
+        <v>17.196</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.15</v>
+        <v>35.147</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.93</v>
+        <v>18.931</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.42</v>
+        <v>2.417</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.33</v>
+        <v>35.325</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>15.31</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.27</v>
+        <v>16.274</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.48</v>
+        <v>22.482</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>63.31</v>
+        <v>63.315</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>10.12</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.47</v>
+        <v>21.474</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45031.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_350.xlsx
+++ b/DATA_goal/Junction_Flooding_350.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45031.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.75</v>
+        <v>6.748</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.44</v>
+        <v>5.442</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.26</v>
+        <v>15.264</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.63</v>
+        <v>12.628</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.66</v>
+        <v>5.659</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.25</v>
+        <v>27.245</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.81</v>
+        <v>8.813000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.07</v>
+        <v>4.071</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.19</v>
+        <v>6.193</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.64</v>
+        <v>6.639</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.49</v>
+        <v>6.487</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.7</v>
+        <v>1.702</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.38</v>
+        <v>5.383</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.07</v>
+        <v>8.073</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>4.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.39</v>
+        <v>78.38800000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.01</v>
+        <v>16.011</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>5.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.55</v>
+        <v>10.548</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.24</v>
+        <v>13.244</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.589</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.51</v>
+        <v>4.507</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.08</v>
+        <v>5.085</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.942</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>25.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.14</v>
+        <v>3.136</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.34</v>
+        <v>6.345</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45031.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_350.xlsx
+++ b/DATA_goal/Junction_Flooding_350.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45031.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.748</v>
+        <v>6.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.442</v>
+        <v>5.44</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.264</v>
+        <v>15.26</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.628</v>
+        <v>12.63</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.659</v>
+        <v>5.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>27.245</v>
+        <v>27.25</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.813000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.071</v>
+        <v>4.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.193</v>
+        <v>6.19</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.639</v>
+        <v>6.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.487</v>
+        <v>6.49</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.702</v>
+        <v>1.7</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.383</v>
+        <v>5.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.073</v>
+        <v>8.07</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>4.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.193</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.38800000000001</v>
+        <v>78.39</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.011</v>
+        <v>16.01</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>5.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.548</v>
+        <v>10.55</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.817</v>
+        <v>5.82</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.71</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.244</v>
+        <v>13.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.589</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.507</v>
+        <v>4.51</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.085</v>
+        <v>5.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.942</v>
+        <v>6.94</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>25.2</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.136</v>
+        <v>3.14</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.345</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45031.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.61</v>
+        <v>6.34</v>
       </c>
     </row>
   </sheetData>
